--- a/base/warranty_list.xlsx
+++ b/base/warranty_list.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -881,7 +881,62 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45041.96386390358</v>
+        <v>45041.96386390046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/03/1986</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ленин ВИ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>89539106192</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pirelli</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P1 Verde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>195/65 R15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nissan Сube</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>К602ТМ42</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>65496864565</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Волобуев</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45042.82885640315</v>
       </c>
     </row>
   </sheetData>

--- a/base/warranty_list.xlsx
+++ b/base/warranty_list.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -936,7 +936,722 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45042.82885640315</v>
+        <v>45042.82885640046</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Волобуев Алексей</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>89539106192</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pirelli</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cinturato P1 Verde</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>165/65 R15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nissan Cube</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>K602TM</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Шараев</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45048.01571782408</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comfort 2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>195/40 R18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5678</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5678</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Шараев</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45048.01821317129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Comfort 2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>165/30 R17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>43564</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Гавриленко</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45048.01952141204</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0506</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8486</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>98761</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sport 3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>175/35 R19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>64584</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6498</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9819</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Гавриленко</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45048.02215415509</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6481</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>681681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>61681</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Comfort 2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>185/30 R17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6878</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Гулида</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45048.02378366898</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02/05/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Волобуев Алексей</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>89539106192</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tunga</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Zodiak 2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>175/35 R17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nissan cube</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>654654654</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Шараев</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45048.02642556713</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>фывыв</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>фыввы</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>фвывы</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tunga</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Zodiak 2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>165/35 R17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>вы</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>фы</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>афы</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Гулида</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45048.02843704861</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45048.03883831018</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45048.0392338426</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45048.03959302083</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>123654df</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12313reter</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45048.04010658565</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1232212321312321</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1232123</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Viatti</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Strada 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>185/25 R18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>123231</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>23132</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Диалло</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45048.04908127315</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>435325</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>234532434253</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>54342342</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gravity</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>195/45 R17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>выац</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>цалцбузащь</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>зцушщаь</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Диалло</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45048.05225938722</v>
       </c>
     </row>
   </sheetData>

--- a/base/warranty_list.xlsx
+++ b/base/warranty_list.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -614,11 +614,131 @@
         </is>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45048.84104809874</v>
+        <v>45048.84104810185</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>PIR116573</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2/05/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Волоьбуев</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8935910611</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cordiant</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Gravity</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>195/60 R17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6684</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6584168</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Диалло</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>45048.94851479166</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>COR812619</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2/0506/65146</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>вололуев</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89535919844</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tunga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Zodiak 2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>185/45 R19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>234235</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Никифоров</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>45048.95025267241</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TUN809835</t>
         </is>
       </c>
     </row>

--- a/base/warranty_list.xlsx
+++ b/base/warranty_list.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -614,11 +614,131 @@
         </is>
       </c>
       <c r="K3" s="1" t="n">
-        <v>45048.84104809874</v>
+        <v>45048.84104810185</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>PIR116573</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>вава</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ваав</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>89539106192</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tunga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Zodiak 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>205/35 R18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Грибанов</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>45064.78022789352</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TUN810460</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/05/15156</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>пзщв вазшоь ваз</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>89539106192</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pirelli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Scorpion Verde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>225/55 R17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>45443</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Трейнис</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>45065.7867702471</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>PIR879988</t>
         </is>
       </c>
     </row>
